--- a/src/test/resources/testdata/excel/testdata.xlsx
+++ b/src/test/resources/testdata/excel/testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinesh.krishnan\IdeaProjects\Kame\src\test\resources\testdata\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8B2C7-D2A7-4E97-AD00-D9CC4C731AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D52F57-889E-4381-A545-D23DF74A2959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B19B115-F549-4F7C-8FC2-7337495A40B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4B19B115-F549-4F7C-8FC2-7337495A40B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -62,20 +63,29 @@
     <t>pass2</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>https://www.google.com/</t>
-  </si>
-  <si>
-    <t>https://facebook.com</t>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>fwefk</t>
+  </si>
+  <si>
+    <t>fjdahfids</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Dharun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,14 +97,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,11 +140,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -150,12 +151,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792AB25E-7A9B-45A7-8060-9E0166B1937F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +498,7 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,11 +508,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -525,11 +519,8 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -539,15 +530,53 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9ABE21F8-EAB2-4141-A2ED-BE16B3BAADEF}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{6ABD57D6-D649-4E5A-A804-F301E6DBB37D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FB37CD-CC9B-4354-9F41-4E8BD18776E6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>